--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il1b</t>
   </si>
   <si>
     <t>Il1rap</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.221235606689853</v>
+        <v>0.283888</v>
       </c>
       <c r="H2">
-        <v>0.221235606689853</v>
+        <v>0.851664</v>
       </c>
       <c r="I2">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="J2">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.69278389752269</v>
+        <v>2.719753333333333</v>
       </c>
       <c r="N2">
-        <v>2.69278389752269</v>
+        <v>8.15926</v>
       </c>
       <c r="O2">
-        <v>0.1163537940458276</v>
+        <v>0.1068554218872926</v>
       </c>
       <c r="P2">
-        <v>0.1163537940458276</v>
+        <v>0.1068554218872926</v>
       </c>
       <c r="Q2">
-        <v>0.5957396792530992</v>
+        <v>0.7721053342933333</v>
       </c>
       <c r="R2">
-        <v>0.5957396792530992</v>
+        <v>6.94894800864</v>
       </c>
       <c r="S2">
-        <v>0.0001029592552577504</v>
+        <v>8.480717004566947E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001029592552577504</v>
+        <v>8.480717004566947E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.221235606689853</v>
+        <v>0.283888</v>
       </c>
       <c r="H3">
-        <v>0.221235606689853</v>
+        <v>0.851664</v>
       </c>
       <c r="I3">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="J3">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.72715606567875</v>
+        <v>5.856929333333333</v>
       </c>
       <c r="N3">
-        <v>5.72715606567875</v>
+        <v>17.570788</v>
       </c>
       <c r="O3">
-        <v>0.2474674399038671</v>
+        <v>0.2301108145385953</v>
       </c>
       <c r="P3">
-        <v>0.2474674399038671</v>
+        <v>0.2301108145385953</v>
       </c>
       <c r="Q3">
-        <v>1.26705084679791</v>
+        <v>1.662711954581333</v>
       </c>
       <c r="R3">
-        <v>1.26705084679791</v>
+        <v>14.964407591232</v>
       </c>
       <c r="S3">
-        <v>0.0002189792221387209</v>
+        <v>0.00018263038630371</v>
       </c>
       <c r="T3">
-        <v>0.0002189792221387209</v>
+        <v>0.00018263038630371</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.221235606689853</v>
+        <v>0.283888</v>
       </c>
       <c r="H4">
-        <v>0.221235606689853</v>
+        <v>0.851664</v>
       </c>
       <c r="I4">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="J4">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.52830251697503</v>
+        <v>6.639461666666667</v>
       </c>
       <c r="N4">
-        <v>6.52830251697503</v>
+        <v>19.918385</v>
       </c>
       <c r="O4">
-        <v>0.282084562087504</v>
+        <v>0.2608554492059968</v>
       </c>
       <c r="P4">
-        <v>0.282084562087504</v>
+        <v>0.2608554492059968</v>
       </c>
       <c r="Q4">
-        <v>1.444292967997865</v>
+        <v>1.884863493626666</v>
       </c>
       <c r="R4">
-        <v>1.444292967997865</v>
+        <v>16.96377144264</v>
       </c>
       <c r="S4">
-        <v>0.0002496112539381311</v>
+        <v>0.0002070312581937715</v>
       </c>
       <c r="T4">
-        <v>0.0002496112539381311</v>
+        <v>0.0002070312581937715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.221235606689853</v>
+        <v>0.283888</v>
       </c>
       <c r="H5">
-        <v>0.221235606689853</v>
+        <v>0.851664</v>
       </c>
       <c r="I5">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="J5">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.80542616731872</v>
+        <v>8.531169</v>
       </c>
       <c r="N5">
-        <v>6.80542616731872</v>
+        <v>25.593507</v>
       </c>
       <c r="O5">
-        <v>0.2940589311287709</v>
+        <v>0.3351780661555555</v>
       </c>
       <c r="P5">
-        <v>0.2940589311287709</v>
+        <v>0.3351780661555555</v>
       </c>
       <c r="Q5">
-        <v>1.505602586909758</v>
+        <v>2.421896505072</v>
       </c>
       <c r="R5">
-        <v>1.505602586909758</v>
+        <v>21.797068545648</v>
       </c>
       <c r="S5">
-        <v>0.0002602071449340423</v>
+        <v>0.0002660183521807164</v>
       </c>
       <c r="T5">
-        <v>0.0002602071449340423</v>
+        <v>0.0002660183521807164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.221235606689853</v>
+        <v>0.283888</v>
       </c>
       <c r="H6">
-        <v>0.221235606689853</v>
+        <v>0.851664</v>
       </c>
       <c r="I6">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="J6">
-        <v>0.0008848809452418753</v>
+        <v>0.0007936627692614523</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.3894004686017</v>
+        <v>1.705333666666667</v>
       </c>
       <c r="N6">
-        <v>1.3894004686017</v>
+        <v>5.116001</v>
       </c>
       <c r="O6">
-        <v>0.06003527283403042</v>
+        <v>0.06700024821255984</v>
       </c>
       <c r="P6">
-        <v>0.06003527283403042</v>
+        <v>0.06700024821255984</v>
       </c>
       <c r="Q6">
-        <v>0.3073848556062632</v>
+        <v>0.4841237639626666</v>
       </c>
       <c r="R6">
-        <v>0.3073848556062632</v>
+        <v>4.357113875664</v>
       </c>
       <c r="S6">
-        <v>5.312406897323072E-05</v>
+        <v>5.317560253758491E-05</v>
       </c>
       <c r="T6">
-        <v>5.312406897323072E-05</v>
+        <v>5.317560253758491E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,49 +847,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>76.5232087254477</v>
+        <v>0.2443866666666667</v>
       </c>
       <c r="H7">
-        <v>76.5232087254477</v>
+        <v>0.73316</v>
       </c>
       <c r="I7">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961075</v>
       </c>
       <c r="J7">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961073</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.69278389752269</v>
+        <v>2.719753333333333</v>
       </c>
       <c r="N7">
-        <v>2.69278389752269</v>
+        <v>8.15926</v>
       </c>
       <c r="O7">
-        <v>0.1163537940458276</v>
+        <v>0.1068554218872926</v>
       </c>
       <c r="P7">
-        <v>0.1163537940458276</v>
+        <v>0.1068554218872926</v>
       </c>
       <c r="Q7">
-        <v>206.0604642426534</v>
+        <v>0.6646714512888888</v>
       </c>
       <c r="R7">
-        <v>206.0604642426534</v>
+        <v>5.9820430616</v>
       </c>
       <c r="S7">
-        <v>0.0356125883088549</v>
+        <v>7.300675476559188E-05</v>
       </c>
       <c r="T7">
-        <v>0.0356125883088549</v>
+        <v>7.300675476559186E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>76.5232087254477</v>
+        <v>0.2443866666666667</v>
       </c>
       <c r="H8">
-        <v>76.5232087254477</v>
+        <v>0.73316</v>
       </c>
       <c r="I8">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961075</v>
       </c>
       <c r="J8">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961073</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.72715606567875</v>
+        <v>5.856929333333333</v>
       </c>
       <c r="N8">
-        <v>5.72715606567875</v>
+        <v>17.570788</v>
       </c>
       <c r="O8">
-        <v>0.2474674399038671</v>
+        <v>0.2301108145385953</v>
       </c>
       <c r="P8">
-        <v>0.2474674399038671</v>
+        <v>0.2301108145385953</v>
       </c>
       <c r="Q8">
-        <v>438.2603590171489</v>
+        <v>1.431355436675556</v>
       </c>
       <c r="R8">
-        <v>438.2603590171489</v>
+        <v>12.88219893008</v>
       </c>
       <c r="S8">
-        <v>0.07574274762086061</v>
+        <v>0.000157218450025395</v>
       </c>
       <c r="T8">
-        <v>0.07574274762086061</v>
+        <v>0.000157218450025395</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>76.5232087254477</v>
+        <v>0.2443866666666667</v>
       </c>
       <c r="H9">
-        <v>76.5232087254477</v>
+        <v>0.73316</v>
       </c>
       <c r="I9">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961075</v>
       </c>
       <c r="J9">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961073</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.52830251697503</v>
+        <v>6.639461666666667</v>
       </c>
       <c r="N9">
-        <v>6.52830251697503</v>
+        <v>19.918385</v>
       </c>
       <c r="O9">
-        <v>0.282084562087504</v>
+        <v>0.2608554492059968</v>
       </c>
       <c r="P9">
-        <v>0.282084562087504</v>
+        <v>0.2608554492059968</v>
       </c>
       <c r="Q9">
-        <v>499.5666561293458</v>
+        <v>1.622595905177778</v>
       </c>
       <c r="R9">
-        <v>499.5666561293458</v>
+        <v>14.6033631466</v>
       </c>
       <c r="S9">
-        <v>0.08633806452369949</v>
+        <v>0.0001782240851525314</v>
       </c>
       <c r="T9">
-        <v>0.08633806452369949</v>
+        <v>0.0001782240851525314</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>76.5232087254477</v>
+        <v>0.2443866666666667</v>
       </c>
       <c r="H10">
-        <v>76.5232087254477</v>
+        <v>0.73316</v>
       </c>
       <c r="I10">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961075</v>
       </c>
       <c r="J10">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961073</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.80542616731872</v>
+        <v>8.531169</v>
       </c>
       <c r="N10">
-        <v>6.80542616731872</v>
+        <v>25.593507</v>
       </c>
       <c r="O10">
-        <v>0.2940589311287709</v>
+        <v>0.3351780661555555</v>
       </c>
       <c r="P10">
-        <v>0.2940589311287709</v>
+        <v>0.3351780661555555</v>
       </c>
       <c r="Q10">
-        <v>520.773047067354</v>
+        <v>2.08490395468</v>
       </c>
       <c r="R10">
-        <v>520.773047067354</v>
+        <v>18.76413559212</v>
       </c>
       <c r="S10">
-        <v>0.09000307844457753</v>
+        <v>0.0002290034744744571</v>
       </c>
       <c r="T10">
-        <v>0.09000307844457753</v>
+        <v>0.0002290034744744571</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>76.5232087254477</v>
+        <v>0.2443866666666667</v>
       </c>
       <c r="H11">
-        <v>76.5232087254477</v>
+        <v>0.73316</v>
       </c>
       <c r="I11">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961075</v>
       </c>
       <c r="J11">
-        <v>0.3060715690528182</v>
+        <v>0.0006832292968961073</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3894004686017</v>
+        <v>1.705333666666667</v>
       </c>
       <c r="N11">
-        <v>1.3894004686017</v>
+        <v>5.116001</v>
       </c>
       <c r="O11">
-        <v>0.06003527283403042</v>
+        <v>0.06700024821255984</v>
       </c>
       <c r="P11">
-        <v>0.06003527283403042</v>
+        <v>0.06700024821255984</v>
       </c>
       <c r="Q11">
-        <v>106.3213820620427</v>
+        <v>0.4167608103511111</v>
       </c>
       <c r="R11">
-        <v>106.3213820620427</v>
+        <v>3.75084729316</v>
       </c>
       <c r="S11">
-        <v>0.01837509015482573</v>
+        <v>4.577653247813194E-05</v>
       </c>
       <c r="T11">
-        <v>0.01837509015482573</v>
+        <v>4.577653247813194E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>173.272925664885</v>
+        <v>86.42549866666667</v>
       </c>
       <c r="H12">
-        <v>173.272925664885</v>
+        <v>259.276496</v>
       </c>
       <c r="I12">
-        <v>0.6930435500019398</v>
+        <v>0.2416188800040461</v>
       </c>
       <c r="J12">
-        <v>0.6930435500019398</v>
+        <v>0.241618880004046</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.69278389752269</v>
+        <v>2.719753333333333</v>
       </c>
       <c r="N12">
-        <v>2.69278389752269</v>
+        <v>8.15926</v>
       </c>
       <c r="O12">
-        <v>0.1163537940458276</v>
+        <v>0.1068554218872926</v>
       </c>
       <c r="P12">
-        <v>0.1163537940458276</v>
+        <v>0.1068554218872926</v>
       </c>
       <c r="Q12">
-        <v>466.5865441070484</v>
+        <v>235.0560380836622</v>
       </c>
       <c r="R12">
-        <v>466.5865441070484</v>
+        <v>2115.50434275296</v>
       </c>
       <c r="S12">
-        <v>0.0806382464817149</v>
+        <v>0.02581828735876748</v>
       </c>
       <c r="T12">
-        <v>0.0806382464817149</v>
+        <v>0.02581828735876748</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>173.272925664885</v>
+        <v>86.42549866666667</v>
       </c>
       <c r="H13">
-        <v>173.272925664885</v>
+        <v>259.276496</v>
       </c>
       <c r="I13">
-        <v>0.6930435500019398</v>
+        <v>0.2416188800040461</v>
       </c>
       <c r="J13">
-        <v>0.6930435500019398</v>
+        <v>0.241618880004046</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.72715606567875</v>
+        <v>5.856929333333333</v>
       </c>
       <c r="N13">
-        <v>5.72715606567875</v>
+        <v>17.570788</v>
       </c>
       <c r="O13">
-        <v>0.2474674399038671</v>
+        <v>0.2301108145385953</v>
       </c>
       <c r="P13">
-        <v>0.2474674399038671</v>
+        <v>0.2301108145385953</v>
       </c>
       <c r="Q13">
-        <v>992.3610872395494</v>
+        <v>506.1880382887609</v>
       </c>
       <c r="R13">
-        <v>992.3610872395494</v>
+        <v>4555.692344598849</v>
       </c>
       <c r="S13">
-        <v>0.1715057130608678</v>
+        <v>0.05559911728563415</v>
       </c>
       <c r="T13">
-        <v>0.1715057130608678</v>
+        <v>0.05559911728563414</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>173.272925664885</v>
+        <v>86.42549866666667</v>
       </c>
       <c r="H14">
-        <v>173.272925664885</v>
+        <v>259.276496</v>
       </c>
       <c r="I14">
-        <v>0.6930435500019398</v>
+        <v>0.2416188800040461</v>
       </c>
       <c r="J14">
-        <v>0.6930435500019398</v>
+        <v>0.241618880004046</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.52830251697503</v>
+        <v>6.639461666666667</v>
       </c>
       <c r="N14">
-        <v>6.52830251697503</v>
+        <v>19.918385</v>
       </c>
       <c r="O14">
-        <v>0.282084562087504</v>
+        <v>0.2608554492059968</v>
       </c>
       <c r="P14">
-        <v>0.282084562087504</v>
+        <v>0.2608554492059968</v>
       </c>
       <c r="Q14">
-        <v>1131.178076741696</v>
+        <v>573.8187854198844</v>
       </c>
       <c r="R14">
-        <v>1131.178076741696</v>
+        <v>5164.36906877896</v>
       </c>
       <c r="S14">
-        <v>0.1954968863098664</v>
+        <v>0.06302760148010528</v>
       </c>
       <c r="T14">
-        <v>0.1954968863098664</v>
+        <v>0.06302760148010526</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>173.272925664885</v>
+        <v>86.42549866666667</v>
       </c>
       <c r="H15">
-        <v>173.272925664885</v>
+        <v>259.276496</v>
       </c>
       <c r="I15">
-        <v>0.6930435500019398</v>
+        <v>0.2416188800040461</v>
       </c>
       <c r="J15">
-        <v>0.6930435500019398</v>
+        <v>0.241618880004046</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.80542616731872</v>
+        <v>8.531169</v>
       </c>
       <c r="N15">
-        <v>6.80542616731872</v>
+        <v>25.593507</v>
       </c>
       <c r="O15">
-        <v>0.2940589311287709</v>
+        <v>0.3351780661555555</v>
       </c>
       <c r="P15">
-        <v>0.2940589311287709</v>
+        <v>0.3351780661555555</v>
       </c>
       <c r="Q15">
-        <v>1179.19610240768</v>
+        <v>737.3105350346081</v>
       </c>
       <c r="R15">
-        <v>1179.19610240768</v>
+        <v>6635.794815311472</v>
       </c>
       <c r="S15">
-        <v>0.2037956455392593</v>
+        <v>0.08098534894642737</v>
       </c>
       <c r="T15">
-        <v>0.2037956455392593</v>
+        <v>0.08098534894642737</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>86.42549866666667</v>
+      </c>
+      <c r="H16">
+        <v>259.276496</v>
+      </c>
+      <c r="I16">
+        <v>0.2416188800040461</v>
+      </c>
+      <c r="J16">
+        <v>0.241618880004046</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.705333666666667</v>
+      </c>
+      <c r="N16">
+        <v>5.116001</v>
+      </c>
+      <c r="O16">
+        <v>0.06700024821255984</v>
+      </c>
+      <c r="P16">
+        <v>0.06700024821255984</v>
+      </c>
+      <c r="Q16">
+        <v>147.3843125347218</v>
+      </c>
+      <c r="R16">
+        <v>1326.458812812496</v>
+      </c>
+      <c r="S16">
+        <v>0.0161885249331118</v>
+      </c>
+      <c r="T16">
+        <v>0.0161885249331118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>270.67202</v>
+      </c>
+      <c r="H17">
+        <v>812.01606</v>
+      </c>
+      <c r="I17">
+        <v>0.7567149895550049</v>
+      </c>
+      <c r="J17">
+        <v>0.7567149895550048</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.719753333333333</v>
+      </c>
+      <c r="N17">
+        <v>8.15926</v>
+      </c>
+      <c r="O17">
+        <v>0.1068554218872926</v>
+      </c>
+      <c r="P17">
+        <v>0.1068554218872926</v>
+      </c>
+      <c r="Q17">
+        <v>736.1611286350667</v>
+      </c>
+      <c r="R17">
+        <v>6625.4501577156</v>
+      </c>
+      <c r="S17">
+        <v>0.0808590994573383</v>
+      </c>
+      <c r="T17">
+        <v>0.08085909945733828</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>270.67202</v>
+      </c>
+      <c r="H18">
+        <v>812.01606</v>
+      </c>
+      <c r="I18">
+        <v>0.7567149895550049</v>
+      </c>
+      <c r="J18">
+        <v>0.7567149895550048</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.856929333333333</v>
+      </c>
+      <c r="N18">
+        <v>17.570788</v>
+      </c>
+      <c r="O18">
+        <v>0.2301108145385953</v>
+      </c>
+      <c r="P18">
+        <v>0.2301108145385953</v>
+      </c>
+      <c r="Q18">
+        <v>1585.306893650587</v>
+      </c>
+      <c r="R18">
+        <v>14267.76204285528</v>
+      </c>
+      <c r="S18">
+        <v>0.1741283026200668</v>
+      </c>
+      <c r="T18">
+        <v>0.1741283026200668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>270.67202</v>
+      </c>
+      <c r="H19">
+        <v>812.01606</v>
+      </c>
+      <c r="I19">
+        <v>0.7567149895550049</v>
+      </c>
+      <c r="J19">
+        <v>0.7567149895550048</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.639461666666667</v>
+      </c>
+      <c r="N19">
+        <v>19.918385</v>
+      </c>
+      <c r="O19">
+        <v>0.2608554492059968</v>
+      </c>
+      <c r="P19">
+        <v>0.2608554492059968</v>
+      </c>
+      <c r="Q19">
+        <v>1797.116501029234</v>
+      </c>
+      <c r="R19">
+        <v>16174.0485092631</v>
+      </c>
+      <c r="S19">
+        <v>0.197393228521282</v>
+      </c>
+      <c r="T19">
+        <v>0.197393228521282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>270.67202</v>
+      </c>
+      <c r="H20">
+        <v>812.01606</v>
+      </c>
+      <c r="I20">
+        <v>0.7567149895550049</v>
+      </c>
+      <c r="J20">
+        <v>0.7567149895550048</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>8.531169</v>
+      </c>
+      <c r="N20">
+        <v>25.593507</v>
+      </c>
+      <c r="O20">
+        <v>0.3351780661555555</v>
+      </c>
+      <c r="P20">
+        <v>0.3351780661555555</v>
+      </c>
+      <c r="Q20">
+        <v>2309.14874619138</v>
+      </c>
+      <c r="R20">
+        <v>20782.33871572242</v>
+      </c>
+      <c r="S20">
+        <v>0.2536342668299679</v>
+      </c>
+      <c r="T20">
+        <v>0.2536342668299679</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>173.272925664885</v>
-      </c>
-      <c r="H16">
-        <v>173.272925664885</v>
-      </c>
-      <c r="I16">
-        <v>0.6930435500019398</v>
-      </c>
-      <c r="J16">
-        <v>0.6930435500019398</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.3894004686017</v>
-      </c>
-      <c r="N16">
-        <v>1.3894004686017</v>
-      </c>
-      <c r="O16">
-        <v>0.06003527283403042</v>
-      </c>
-      <c r="P16">
-        <v>0.06003527283403042</v>
-      </c>
-      <c r="Q16">
-        <v>240.7454841147788</v>
-      </c>
-      <c r="R16">
-        <v>240.7454841147788</v>
-      </c>
-      <c r="S16">
-        <v>0.04160705861023146</v>
-      </c>
-      <c r="T16">
-        <v>0.04160705861023146</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>270.67202</v>
+      </c>
+      <c r="H21">
+        <v>812.01606</v>
+      </c>
+      <c r="I21">
+        <v>0.7567149895550049</v>
+      </c>
+      <c r="J21">
+        <v>0.7567149895550048</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.705333666666667</v>
+      </c>
+      <c r="N21">
+        <v>5.116001</v>
+      </c>
+      <c r="O21">
+        <v>0.06700024821255984</v>
+      </c>
+      <c r="P21">
+        <v>0.06700024821255984</v>
+      </c>
+      <c r="Q21">
+        <v>461.5861083306734</v>
+      </c>
+      <c r="R21">
+        <v>4154.27497497606</v>
+      </c>
+      <c r="S21">
+        <v>0.05070009212634996</v>
+      </c>
+      <c r="T21">
+        <v>0.05070009212634995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.06768933333333334</v>
+      </c>
+      <c r="H22">
+        <v>0.203068</v>
+      </c>
+      <c r="I22">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="J22">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.719753333333333</v>
+      </c>
+      <c r="N22">
+        <v>8.15926</v>
+      </c>
+      <c r="O22">
+        <v>0.1068554218872926</v>
+      </c>
+      <c r="P22">
+        <v>0.1068554218872926</v>
+      </c>
+      <c r="Q22">
+        <v>0.1840982899644444</v>
+      </c>
+      <c r="R22">
+        <v>1.65688460968</v>
+      </c>
+      <c r="S22">
+        <v>2.022114637560589E-05</v>
+      </c>
+      <c r="T22">
+        <v>2.022114637560589E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.06768933333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.203068</v>
+      </c>
+      <c r="I23">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="J23">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.856929333333333</v>
+      </c>
+      <c r="N23">
+        <v>17.570788</v>
+      </c>
+      <c r="O23">
+        <v>0.2301108145385953</v>
+      </c>
+      <c r="P23">
+        <v>0.2301108145385953</v>
+      </c>
+      <c r="Q23">
+        <v>0.3964516419537778</v>
+      </c>
+      <c r="R23">
+        <v>3.568064777584</v>
+      </c>
+      <c r="S23">
+        <v>4.35457965652203E-05</v>
+      </c>
+      <c r="T23">
+        <v>4.35457965652203E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.06768933333333334</v>
+      </c>
+      <c r="H24">
+        <v>0.203068</v>
+      </c>
+      <c r="I24">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="J24">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.639461666666667</v>
+      </c>
+      <c r="N24">
+        <v>19.918385</v>
+      </c>
+      <c r="O24">
+        <v>0.2608554492059968</v>
+      </c>
+      <c r="P24">
+        <v>0.2608554492059968</v>
+      </c>
+      <c r="Q24">
+        <v>0.4494207339088889</v>
+      </c>
+      <c r="R24">
+        <v>4.044786605180001</v>
+      </c>
+      <c r="S24">
+        <v>4.936386126323621E-05</v>
+      </c>
+      <c r="T24">
+        <v>4.936386126323621E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.06768933333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.203068</v>
+      </c>
+      <c r="I25">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="J25">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.531169</v>
+      </c>
+      <c r="N25">
+        <v>25.593507</v>
+      </c>
+      <c r="O25">
+        <v>0.3351780661555555</v>
+      </c>
+      <c r="P25">
+        <v>0.3351780661555555</v>
+      </c>
+      <c r="Q25">
+        <v>0.577469142164</v>
+      </c>
+      <c r="R25">
+        <v>5.197222279476</v>
+      </c>
+      <c r="S25">
+        <v>6.34285525050181E-05</v>
+      </c>
+      <c r="T25">
+        <v>6.342855250501809E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.06768933333333334</v>
+      </c>
+      <c r="H26">
+        <v>0.203068</v>
+      </c>
+      <c r="I26">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="J26">
+        <v>0.000189238374791449</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.705333666666667</v>
+      </c>
+      <c r="N26">
+        <v>5.116001</v>
+      </c>
+      <c r="O26">
+        <v>0.06700024821255984</v>
+      </c>
+      <c r="P26">
+        <v>0.06700024821255984</v>
+      </c>
+      <c r="Q26">
+        <v>0.1154328990075556</v>
+      </c>
+      <c r="R26">
+        <v>1.038896091068</v>
+      </c>
+      <c r="S26">
+        <v>1.267901808236851E-05</v>
+      </c>
+      <c r="T26">
+        <v>1.267901808236851E-05</v>
       </c>
     </row>
   </sheetData>
